--- a/ballcat-sample-excel/src/main/resources/excel/fill-template.xlsx
+++ b/ballcat-sample-excel/src/main/resources/excel/fill-template.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11670"/>
+    <workbookView windowWidth="23430" windowHeight="12015"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -41,7 +41,7 @@
   <fonts count="22">
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -54,7 +54,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -536,7 +536,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -545,10 +545,10 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -557,7 +557,7 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -566,13 +566,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -681,8 +681,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -690,6 +690,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1013,16 +1016,16 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="31.625" customWidth="1"/>
+    <col min="1" max="1" width="24.125" customWidth="1"/>
+    <col min="2" max="2" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:2">
+    <row r="1" ht="25" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1031,15 +1034,15 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>